--- a/data/self_coup_Reddy.xlsx
+++ b/data/self_coup_Reddy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reddy/PhD_Essex/PhD_Overstay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingengdu/MyEssex/PhD_Papers/PhD-Coup-Survival/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7EA27A-6F23-AF4D-8874-9F24DDC1D049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FA87FD-6273-534B-BA68-1993DA427B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reddy" sheetId="2" r:id="rId1"/>
@@ -3649,7 +3649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3778,22 +3778,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3809,10 +3800,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="20" formatCode="dd\-mmm\-yy"/>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
     </dxf>
     <dxf>
       <font>
@@ -4296,13 +4287,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AZ114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C120" sqref="C120"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4514,7 +4506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="4" customFormat="1" ht="51">
+    <row r="2" spans="1:52" s="4" customFormat="1" ht="51" hidden="1">
       <c r="A2" s="21">
         <v>145</v>
       </c>
@@ -4732,7 +4724,7 @@
       <c r="AY3" s="6"/>
       <c r="AZ3" s="6"/>
     </row>
-    <row r="4" spans="1:52" s="16" customFormat="1" ht="51">
+    <row r="4" spans="1:52" s="16" customFormat="1" ht="51" hidden="1">
       <c r="A4" s="21">
         <v>150</v>
       </c>
@@ -4766,16 +4758,16 @@
       <c r="K4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="41" t="s">
         <v>1024</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="41" t="s">
         <v>951</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="41">
         <v>3</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="50">
         <v>4</v>
       </c>
       <c r="P4" s="22" t="s">
@@ -4886,16 +4878,16 @@
       <c r="K5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="42" t="s">
         <v>1024</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="42">
         <v>3</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="43">
         <v>6</v>
       </c>
       <c r="P5" s="7" t="s">
@@ -5097,7 +5089,7 @@
         <v>1955</v>
       </c>
       <c r="F7" s="6">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="G7" s="6">
         <v>1951</v>
@@ -5191,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:52" s="21" customFormat="1" ht="85">
+    <row r="8" spans="1:52" s="21" customFormat="1" ht="85" hidden="1">
       <c r="A8" s="21">
         <v>41</v>
       </c>
@@ -5302,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" s="21" customFormat="1" ht="51">
+    <row r="9" spans="1:52" s="21" customFormat="1" ht="51" hidden="1">
       <c r="A9" s="21">
         <v>145</v>
       </c>
@@ -5438,13 +5430,13 @@
       <c r="L10" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="M10" s="50" t="s">
+      <c r="M10" s="42" t="s">
         <v>1093</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="42">
         <v>5</v>
       </c>
-      <c r="O10" s="53">
+      <c r="O10" s="43">
         <v>5</v>
       </c>
       <c r="P10" s="7" t="s">
@@ -5629,10 +5621,10 @@
       <c r="L12" s="42" t="s">
         <v>1024</v>
       </c>
-      <c r="M12" s="50" t="s">
+      <c r="M12" s="42" t="s">
         <v>946</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="42">
         <v>3</v>
       </c>
       <c r="O12" s="14">
@@ -5759,10 +5751,10 @@
       <c r="L13" s="42" t="s">
         <v>1023</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="42" t="s">
         <v>946</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="42">
         <v>3</v>
       </c>
       <c r="O13" s="14">
@@ -5848,7 +5840,7 @@
       <c r="K14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="L14" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="M14" s="7" t="s">
@@ -5946,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="51">
+    <row r="15" spans="1:52" ht="51" hidden="1">
       <c r="A15" s="21">
         <v>100</v>
       </c>
@@ -6101,10 +6093,10 @@
       <c r="J16" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="M16" s="7" t="s">
@@ -6237,10 +6229,10 @@
       <c r="J17" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="42" t="s">
         <v>1130</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="42" t="s">
         <v>1024</v>
       </c>
       <c r="M17" s="7" t="s">
@@ -6269,7 +6261,7 @@
       <c r="AR17" s="8"/>
       <c r="AS17" s="8"/>
     </row>
-    <row r="18" spans="1:52" s="6" customFormat="1" ht="34">
+    <row r="18" spans="1:52" s="6" customFormat="1" ht="34" hidden="1">
       <c r="A18" s="6">
         <v>481</v>
       </c>
@@ -6303,7 +6295,7 @@
       <c r="K18" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="42" t="s">
         <v>1023</v>
       </c>
       <c r="M18" s="7" t="s">
@@ -6326,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18" s="7" t="s">
         <v>952</v>
@@ -6377,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:52" s="6" customFormat="1" ht="51">
+    <row r="19" spans="1:52" s="6" customFormat="1" ht="51" hidden="1">
       <c r="A19" s="21">
         <v>482</v>
       </c>
@@ -6411,7 +6403,7 @@
       <c r="K19" s="22" t="s">
         <v>1071</v>
       </c>
-      <c r="L19" s="51" t="s">
+      <c r="L19" s="41" t="s">
         <v>1024</v>
       </c>
       <c r="M19" s="22" t="s">
@@ -6625,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="60">
+    <row r="21" spans="1:52" ht="60" hidden="1">
       <c r="A21" s="6">
         <v>93</v>
       </c>
@@ -6682,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
@@ -6760,7 +6752,7 @@
         <v>180</v>
       </c>
       <c r="D22" s="6">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="E22" s="6">
         <v>1966</v>
@@ -6873,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="68">
+    <row r="23" spans="1:52" ht="68" hidden="1">
       <c r="A23" s="21">
         <v>145</v>
       </c>
@@ -7140,7 +7132,7 @@
         <v>1997</v>
       </c>
       <c r="F25" s="6">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="G25" s="6">
         <v>1970</v>
@@ -7254,7 +7246,7 @@
         <v>1979</v>
       </c>
       <c r="F26" s="6">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="G26" s="6">
         <v>1972</v>
@@ -7367,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:52" s="21" customFormat="1" ht="17">
+    <row r="27" spans="1:52" s="21" customFormat="1" ht="17" hidden="1">
       <c r="A27" s="6">
         <v>484</v>
       </c>
@@ -7424,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
@@ -7498,7 +7490,7 @@
         <v>270</v>
       </c>
       <c r="D28" s="6">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="E28" s="6">
         <v>1994</v>
@@ -7594,7 +7586,7 @@
         <v>1979</v>
       </c>
       <c r="F29" s="6">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="G29" s="6">
         <v>1972</v>
@@ -7703,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:52" s="6" customFormat="1" ht="51">
+    <row r="30" spans="1:52" s="6" customFormat="1" ht="51" hidden="1">
       <c r="A30" s="21">
         <v>165</v>
       </c>
@@ -7842,7 +7834,7 @@
         <v>1985</v>
       </c>
       <c r="F31" s="6">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="G31" s="6">
         <v>1978</v>
@@ -7966,7 +7958,7 @@
         <v>1986</v>
       </c>
       <c r="F32" s="6">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="G32" s="6">
         <v>1976</v>
@@ -8427,7 +8419,7 @@
       <c r="AY35" s="6"/>
       <c r="AZ35" s="6"/>
     </row>
-    <row r="36" spans="1:52" ht="51">
+    <row r="36" spans="1:52" ht="51" hidden="1">
       <c r="A36" s="21">
         <v>517</v>
       </c>
@@ -8577,16 +8569,16 @@
       <c r="K37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L37" s="50" t="s">
+      <c r="L37" s="42" t="s">
         <v>1023</v>
       </c>
-      <c r="M37" s="50" t="s">
+      <c r="M37" s="42" t="s">
         <v>949</v>
       </c>
       <c r="N37" s="7">
         <v>98</v>
       </c>
-      <c r="O37" s="53"/>
+      <c r="O37" s="43"/>
       <c r="P37" s="7" t="s">
         <v>984</v>
       </c>
@@ -8670,13 +8662,13 @@
         <v>406</v>
       </c>
       <c r="D38" s="6">
-        <v>1966</v>
+        <v>1974</v>
       </c>
       <c r="E38" s="6">
         <v>1980</v>
       </c>
       <c r="F38" s="6">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="G38" s="6">
         <v>1974</v>
@@ -8751,7 +8743,7 @@
       <c r="AY38" s="6"/>
       <c r="AZ38" s="6"/>
     </row>
-    <row r="39" spans="1:52" ht="51">
+    <row r="39" spans="1:52" ht="51" hidden="1">
       <c r="A39" s="21">
         <v>145</v>
       </c>
@@ -9257,7 +9249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:52" s="6" customFormat="1">
+    <row r="43" spans="1:52" s="6" customFormat="1" hidden="1">
       <c r="A43" s="6">
         <v>520</v>
       </c>
@@ -9327,16 +9319,16 @@
       <c r="K44" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="L44" s="50" t="s">
+      <c r="L44" s="42" t="s">
         <v>1023</v>
       </c>
-      <c r="M44" s="50" t="s">
+      <c r="M44" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="N44" s="50">
+      <c r="N44" s="42">
         <v>3</v>
       </c>
-      <c r="O44" s="53">
+      <c r="O44" s="43">
         <v>6</v>
       </c>
       <c r="P44" s="7" t="s">
@@ -9421,7 +9413,7 @@
         <v>1999</v>
       </c>
       <c r="F45" s="6">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="G45" s="6">
         <v>1982</v>
@@ -9438,16 +9430,16 @@
       <c r="K45" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="L45" s="50" t="s">
+      <c r="L45" s="42" t="s">
         <v>1023</v>
       </c>
-      <c r="M45" s="50" t="s">
+      <c r="M45" s="42" t="s">
         <v>964</v>
       </c>
       <c r="N45" s="42">
         <v>2</v>
       </c>
-      <c r="O45" s="53">
+      <c r="O45" s="43">
         <v>6</v>
       </c>
       <c r="P45" s="7" t="s">
@@ -9633,7 +9625,7 @@
       <c r="M47" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="N47" s="50">
+      <c r="N47" s="42">
         <v>2</v>
       </c>
       <c r="O47" s="14">
@@ -9957,7 +9949,7 @@
         <v>1999</v>
       </c>
       <c r="F50" s="6">
-        <v>1988</v>
+        <v>1993</v>
       </c>
       <c r="G50" s="6">
         <v>1984</v>
@@ -10064,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:52" ht="51">
+    <row r="51" spans="1:52" ht="51" hidden="1">
       <c r="A51" s="21">
         <v>581</v>
       </c>
@@ -10186,7 +10178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:52" s="6" customFormat="1" ht="51">
+    <row r="52" spans="1:52" s="6" customFormat="1" ht="51" hidden="1">
       <c r="A52" s="21">
         <v>345</v>
       </c>
@@ -10226,7 +10218,7 @@
       <c r="M52" s="22" t="s">
         <v>964</v>
       </c>
-      <c r="N52" s="50">
+      <c r="N52" s="42">
         <v>2</v>
       </c>
       <c r="O52" s="23">
@@ -10430,7 +10422,7 @@
         <v>2000</v>
       </c>
       <c r="F54" s="6">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="G54" s="6">
         <v>2000</v>
@@ -10453,7 +10445,7 @@
       <c r="M54" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="N54" s="50">
+      <c r="N54" s="42">
         <v>3</v>
       </c>
       <c r="O54" s="14">
@@ -10556,7 +10548,7 @@
         <v>2016</v>
       </c>
       <c r="F55" s="6">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="G55" s="6">
         <v>2002</v>
@@ -10579,7 +10571,7 @@
       <c r="M55" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="N55" s="50">
+      <c r="N55" s="42">
         <v>4</v>
       </c>
       <c r="O55" s="14">
@@ -10686,7 +10678,7 @@
         <v>1999</v>
       </c>
       <c r="F56" s="6">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G56" s="6">
         <v>1993</v>
@@ -10703,16 +10695,16 @@
       <c r="K56" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="L56" s="50" t="s">
+      <c r="L56" s="42" t="s">
         <v>1023</v>
       </c>
-      <c r="M56" s="50" t="s">
+      <c r="M56" s="42" t="s">
         <v>951</v>
       </c>
-      <c r="N56" s="50">
+      <c r="N56" s="42">
         <v>3</v>
       </c>
-      <c r="O56" s="53">
+      <c r="O56" s="43">
         <v>6</v>
       </c>
       <c r="P56" s="7" t="s">
@@ -10806,7 +10798,7 @@
         <v>2019</v>
       </c>
       <c r="F57" s="6">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="G57" s="6">
         <v>2005</v>
@@ -11182,7 +11174,9 @@
       <c r="D60" s="6">
         <v>1979</v>
       </c>
-      <c r="E60" s="6"/>
+      <c r="E60" s="6">
+        <v>2023</v>
+      </c>
       <c r="F60" s="6">
         <v>1996</v>
       </c>
@@ -11257,7 +11251,7 @@
       <c r="AY60" s="6"/>
       <c r="AZ60" s="6"/>
     </row>
-    <row r="61" spans="1:52" ht="34">
+    <row r="61" spans="1:52" ht="34" hidden="1">
       <c r="A61" s="21">
         <v>551</v>
       </c>
@@ -11388,7 +11382,7 @@
         <v>634</v>
       </c>
       <c r="D62" s="6">
-        <v>1985</v>
+        <v>1997</v>
       </c>
       <c r="E62" s="6">
         <v>2023</v>
@@ -11642,7 +11636,7 @@
         <v>2003</v>
       </c>
       <c r="F64" s="6">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>939</v>
@@ -11702,7 +11696,7 @@
         <v>2005</v>
       </c>
       <c r="F65" s="6">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G65" s="6">
         <v>1998</v>
@@ -11822,7 +11816,7 @@
         <v>2005</v>
       </c>
       <c r="F66" s="6">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G66" s="6">
         <v>2000</v>
@@ -11934,7 +11928,7 @@
         <v>2019</v>
       </c>
       <c r="F67" s="6">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G67" s="6">
         <v>2007</v>
@@ -12178,7 +12172,7 @@
         <v>2023</v>
       </c>
       <c r="F69" s="6">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="G69" s="6">
         <v>2003</v>
@@ -12195,16 +12189,16 @@
       <c r="K69" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="L69" s="50" t="s">
+      <c r="L69" s="42" t="s">
         <v>1023</v>
       </c>
-      <c r="M69" s="50" t="s">
+      <c r="M69" s="42" t="s">
         <v>970</v>
       </c>
       <c r="N69" s="7">
         <v>4</v>
       </c>
-      <c r="O69" s="53">
+      <c r="O69" s="43">
         <v>5</v>
       </c>
       <c r="P69" s="7" t="s">
@@ -12305,10 +12299,10 @@
         <v>1999</v>
       </c>
       <c r="E70" s="6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F70" s="6">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="G70" s="6">
         <v>2009</v>
@@ -12436,7 +12430,7 @@
         <v>2023</v>
       </c>
       <c r="F71" s="6">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>939</v>
@@ -12522,7 +12516,7 @@
       <c r="N72" s="7">
         <v>2</v>
       </c>
-      <c r="O72" s="53">
+      <c r="O72" s="43">
         <v>5</v>
       </c>
       <c r="P72" s="7" t="s">
@@ -12598,7 +12592,7 @@
     </row>
     <row r="73" spans="1:52" s="6" customFormat="1" ht="34">
       <c r="A73" s="6">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>281</v>
@@ -12607,7 +12601,7 @@
         <v>462</v>
       </c>
       <c r="D73" s="6">
-        <v>1990</v>
+        <v>1978</v>
       </c>
       <c r="E73" s="6">
         <v>2012</v>
@@ -12724,7 +12718,7 @@
         <v>2023</v>
       </c>
       <c r="F74" s="6">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="G74" s="6">
         <v>2015</v>
@@ -12854,7 +12848,7 @@
         <v>2005</v>
       </c>
       <c r="F75" s="6">
-        <v>2002</v>
+        <v>1977</v>
       </c>
       <c r="G75" s="6">
         <v>1979</v>
@@ -12986,7 +12980,7 @@
         <v>2011</v>
       </c>
       <c r="F76" s="6">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="G76" s="6">
         <v>2002</v>
@@ -13106,7 +13100,7 @@
         <v>2003</v>
       </c>
       <c r="F77" s="6">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="G77" s="6">
         <v>2002</v>
@@ -13203,7 +13197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:52" s="6" customFormat="1" ht="51">
+    <row r="78" spans="1:52" s="6" customFormat="1" ht="51" hidden="1">
       <c r="A78" s="21">
         <v>553</v>
       </c>
@@ -13295,7 +13289,7 @@
       <c r="AY78" s="21"/>
       <c r="AZ78" s="21"/>
     </row>
-    <row r="79" spans="1:52" ht="51">
+    <row r="79" spans="1:52" ht="51" hidden="1">
       <c r="A79" s="21">
         <v>42</v>
       </c>
@@ -13430,7 +13424,7 @@
         <v>2023</v>
       </c>
       <c r="F80" s="6">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="G80" s="6">
         <v>2003</v>
@@ -13718,7 +13712,7 @@
         <v>2010</v>
       </c>
       <c r="F83" s="6">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G83" s="6">
         <v>2005</v>
@@ -14155,14 +14149,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:52" s="21" customFormat="1" ht="34">
+    <row r="87" spans="1:52" s="21" customFormat="1" ht="34" hidden="1">
       <c r="A87" s="21">
         <v>475</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="52" t="s">
         <v>1145</v>
       </c>
       <c r="D87" s="21">
@@ -14186,16 +14180,16 @@
       <c r="K87" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="L87" s="51" t="s">
+      <c r="L87" s="41" t="s">
         <v>1023</v>
       </c>
-      <c r="M87" s="51" t="s">
+      <c r="M87" s="41" t="s">
         <v>964</v>
       </c>
       <c r="N87" s="22">
         <v>2</v>
       </c>
-      <c r="O87" s="52">
+      <c r="O87" s="50">
         <v>4</v>
       </c>
       <c r="P87" s="22" t="s">
@@ -14230,7 +14224,7 @@
         <v>2023</v>
       </c>
       <c r="F88" s="6">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="G88" s="6">
         <v>1983</v>
@@ -14338,7 +14332,7 @@
         <v>2019</v>
       </c>
       <c r="F89" s="6">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="G89" s="6">
         <v>2008</v>
@@ -14355,16 +14349,16 @@
       <c r="K89" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="L89" s="50" t="s">
+      <c r="L89" s="42" t="s">
         <v>1024</v>
       </c>
-      <c r="M89" s="50" t="s">
+      <c r="M89" s="42" t="s">
         <v>964</v>
       </c>
       <c r="N89" s="7">
         <v>2</v>
       </c>
-      <c r="O89" s="53">
+      <c r="O89" s="43">
         <v>5</v>
       </c>
       <c r="P89" s="7" t="s">
@@ -14573,7 +14567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:52" s="6" customFormat="1" ht="34">
+    <row r="91" spans="1:52" s="6" customFormat="1" ht="34" hidden="1">
       <c r="A91" s="21">
         <v>433</v>
       </c>
@@ -14712,7 +14706,7 @@
         <v>2017</v>
       </c>
       <c r="F92" s="6">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="G92" s="6">
         <v>2015</v>
@@ -14797,7 +14791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:52" ht="34">
+    <row r="93" spans="1:52" ht="34" hidden="1">
       <c r="A93" s="21">
         <v>436</v>
       </c>
@@ -14831,16 +14825,16 @@
       <c r="K93" s="22" t="s">
         <v>715</v>
       </c>
-      <c r="L93" s="51" t="s">
+      <c r="L93" s="41" t="s">
         <v>1024</v>
       </c>
-      <c r="M93" s="51" t="s">
+      <c r="M93" s="41" t="s">
         <v>964</v>
       </c>
       <c r="N93" s="7">
         <v>2</v>
       </c>
-      <c r="O93" s="52">
+      <c r="O93" s="50">
         <v>5</v>
       </c>
       <c r="P93" s="22" t="s">
@@ -14936,7 +14930,7 @@
         <v>2023</v>
       </c>
       <c r="F94" s="6">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="G94" s="6">
         <v>2016</v>
@@ -15033,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:52" s="6" customFormat="1" ht="34">
+    <row r="95" spans="1:52" s="6" customFormat="1" ht="34" hidden="1">
       <c r="A95" s="21">
         <v>91</v>
       </c>
@@ -15142,7 +15136,7 @@
         <v>2023</v>
       </c>
       <c r="F96" s="6">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="G96" s="6">
         <v>2014</v>
@@ -15369,7 +15363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:52" s="21" customFormat="1" ht="34">
+    <row r="98" spans="1:52" s="21" customFormat="1" ht="34" hidden="1">
       <c r="A98" s="21">
         <v>780</v>
       </c>
@@ -15556,7 +15550,7 @@
       <c r="AY99" s="6"/>
       <c r="AZ99" s="6"/>
     </row>
-    <row r="100" spans="1:52" s="6" customFormat="1" ht="34">
+    <row r="100" spans="1:52" s="6" customFormat="1" ht="34" hidden="1">
       <c r="A100" s="16">
         <v>345</v>
       </c>
@@ -15786,7 +15780,7 @@
         <v>2019</v>
       </c>
       <c r="F102" s="6">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G102" s="6">
         <v>2017</v>
@@ -15891,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:52" ht="51">
+    <row r="103" spans="1:52" ht="51" hidden="1">
       <c r="A103" s="21">
         <v>553</v>
       </c>
@@ -16118,7 +16112,7 @@
         <v>2020</v>
       </c>
       <c r="F105" s="6">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="G105" s="6">
         <v>2015</v>
@@ -16238,7 +16232,7 @@
         <v>2022</v>
       </c>
       <c r="F106" s="6">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="G106" s="6">
         <v>2015</v>
@@ -16487,16 +16481,16 @@
       <c r="K108" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="L108" s="50" t="s">
+      <c r="L108" s="42" t="s">
         <v>1023</v>
       </c>
-      <c r="M108" s="50" t="s">
+      <c r="M108" s="42" t="s">
         <v>935</v>
       </c>
       <c r="N108" s="7">
         <v>2</v>
       </c>
-      <c r="O108" s="53">
+      <c r="O108" s="43">
         <v>5</v>
       </c>
       <c r="P108" s="7" t="s">
@@ -16553,7 +16547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:52" s="21" customFormat="1" ht="34">
+    <row r="109" spans="1:52" s="21" customFormat="1" ht="34" hidden="1">
       <c r="A109" s="21">
         <v>150</v>
       </c>
@@ -16584,10 +16578,10 @@
       <c r="K109" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="L109" s="51" t="s">
+      <c r="L109" s="41" t="s">
         <v>1023</v>
       </c>
-      <c r="M109" s="51" t="s">
+      <c r="M109" s="41" t="s">
         <v>978</v>
       </c>
       <c r="N109" s="22">
@@ -16613,7 +16607,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="110" spans="1:52" s="6" customFormat="1" ht="119">
+    <row r="110" spans="1:52" s="6" customFormat="1" ht="119" hidden="1">
       <c r="A110" s="21">
         <v>371</v>
       </c>
@@ -16720,7 +16714,7 @@
         <v>2023</v>
       </c>
       <c r="F111" s="6">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="G111" s="6">
         <v>2018</v>
@@ -16819,14 +16813,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:52" s="21" customFormat="1" ht="51">
+    <row r="112" spans="1:52" s="21" customFormat="1" ht="51" hidden="1">
       <c r="A112" s="6">
         <v>581</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C112" s="54" t="s">
+      <c r="C112" s="51" t="s">
         <v>1147</v>
       </c>
       <c r="D112" s="6">
@@ -16836,7 +16830,7 @@
         <v>2023</v>
       </c>
       <c r="F112" s="6">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6" t="s">
@@ -16870,7 +16864,7 @@
         <v>1</v>
       </c>
       <c r="T112" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
@@ -16965,7 +16959,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="114" spans="1:52" s="21" customFormat="1" ht="71" customHeight="1">
+    <row r="114" spans="1:52" s="21" customFormat="1" ht="71" hidden="1" customHeight="1">
       <c r="A114" s="4">
         <v>2</v>
       </c>
@@ -17059,6 +17053,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AZ114" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="19">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AZ114">
       <sortCondition ref="F1:F114"/>
     </sortState>
